--- a/data/results/onlinekmeans_v2.xlsx
+++ b/data/results/onlinekmeans_v2.xlsx
@@ -473,17 +473,17 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.69439721107483</v>
+        <v>65.65038061141968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08694243431091309</v>
+        <v>0.1076333522796631</v>
       </c>
       <c r="E2" t="n">
-        <v>972.2507891654968</v>
+        <v>1043.661642074585</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7526476432390355, 'chunk_accuracy': 0.6831431673392466, 'doc_precision': 1.0, 'doc_recall': 0.7526476432390355, 'doc_f1': 0.8588693182482263, 'chunk_precision': 1.0, 'chunk_recall': 0.9076533667192859, 'chunk_f1': 0.9515915024753535}</t>
+          <t>{'doc_accuracy': 0.7526476432390355, 'chunk_accuracy': 0.6237990863838417, 'doc_precision': 1.0, 'doc_recall': 0.7526476432390355, 'doc_f1': 0.8588693182482263, 'chunk_precision': 1.0, 'chunk_recall': 0.6237990863838417, 'chunk_f1': 0.7683205288322043, 'correct_chunk_accuracy': 0.21714156953520292}</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -501,14 +501,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05866241455078125</v>
+        <v>0.06764340400695801</v>
       </c>
       <c r="E3" t="n">
-        <v>1195.48333978653</v>
+        <v>1169.398561000824</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7504250860057733, 'chunk_accuracy': 0.6802760093321207, 'doc_precision': 1.0, 'doc_recall': 0.7504250860057733, 'doc_f1': 0.857420396914145, 'chunk_precision': 1.0, 'chunk_recall': 0.9065208799894612, 'chunk_f1': 0.950968740499157}</t>
+          <t>{'doc_accuracy': 0.7504250860057733, 'chunk_accuracy': 0.6205662541025743, 'doc_precision': 1.0, 'doc_recall': 0.7504250860057733, 'doc_f1': 0.857420396914145, 'chunk_precision': 1.0, 'chunk_recall': 0.6205662541025743, 'chunk_f1': 0.7658634783139144, 'correct_chunk_accuracy': 0.21607022816244217}</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -526,14 +526,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08952975273132324</v>
+        <v>0.07201099395751953</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.388566017151</v>
+        <v>1213.153703689575</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7481182232216018, 'chunk_accuracy': 0.6784114945595213, 'doc_precision': 1.0, 'doc_recall': 0.7481182232216018, 'doc_f1': 0.8559126188192203, 'chunk_precision': 1.0, 'chunk_recall': 0.9068239129881046, 'chunk_f1': 0.9511354528453112}</t>
+          <t>{'doc_accuracy': 0.7481182232216018, 'chunk_accuracy': 0.6187091487699373, 'doc_precision': 1.0, 'doc_recall': 0.7481182232216018, 'doc_f1': 0.8559126188192203, 'chunk_precision': 1.0, 'chunk_recall': 0.6187091487699373, 'chunk_f1': 0.7644475837306492, 'correct_chunk_accuracy': 0.21535529851172897}</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -551,14 +551,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08686137199401855</v>
+        <v>0.1106255054473877</v>
       </c>
       <c r="E5" t="n">
-        <v>1192.716213464737</v>
+        <v>1334.962782621384</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.74555143736977, 'chunk_accuracy': 0.6742453578211723, 'doc_precision': 1.0, 'doc_recall': 0.74555143736977, 'doc_f1': 0.8542302694822687, 'chunk_precision': 1.0, 'chunk_recall': 0.9043579343094579, 'chunk_f1': 0.9497772640492487}</t>
+          <t>{'doc_accuracy': 0.74555143736977, 'chunk_accuracy': 0.6149066032343125, 'doc_precision': 1.0, 'doc_recall': 0.74555143736977, 'doc_f1': 0.8542302694822687, 'chunk_precision': 1.0, 'chunk_recall': 0.6149066032343125, 'chunk_f1': 0.7615382858708808, 'correct_chunk_accuracy': 0.21398830926960596}</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -576,14 +576,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07762789726257324</v>
+        <v>0.07415509223937988</v>
       </c>
       <c r="E6" t="n">
-        <v>1210.019450426102</v>
+        <v>1364.119458675385</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7438122560986475, 'chunk_accuracy': 0.6723925943085229, 'doc_precision': 1.0, 'doc_recall': 0.7438122560986475, 'doc_f1': 0.8530875425348198, 'chunk_precision': 1.0, 'chunk_recall': 0.903981601264913, 'chunk_f1': 0.9495696814132568}</t>
+          <t>{'doc_accuracy': 0.7438122560986475, 'chunk_accuracy': 0.6128583902065254, 'doc_precision': 1.0, 'doc_recall': 0.7438122560986475, 'doc_f1': 0.8530875425348198, 'chunk_precision': 1.0, 'chunk_recall': 0.6128583902065254, 'chunk_f1': 0.7599655294325615, 'correct_chunk_accuracy': 0.21317200947985532}</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -601,14 +601,14 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07643866539001465</v>
+        <v>0.06873726844787598</v>
       </c>
       <c r="E7" t="n">
-        <v>1268.522476196289</v>
+        <v>1408.348703145981</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7415529201163571, 'chunk_accuracy': 0.6702755736096528, 'doc_precision': 1.0, 'doc_recall': 0.7415529201163571, 'doc_f1': 0.8515996402415521, 'chunk_precision': 1.0, 'chunk_recall': 0.9038809711712548, 'chunk_f1': 0.9495141606622532}</t>
+          <t>{'doc_accuracy': 0.7415529201163571, 'chunk_accuracy': 0.6101864123792967, 'doc_precision': 1.0, 'doc_recall': 0.7415529201163571, 'doc_f1': 0.8515996402415521, 'chunk_precision': 1.0, 'chunk_recall': 0.6101864123792967, 'chunk_f1': 0.757907789667226, 'correct_chunk_accuracy': 0.21212799283956144}</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -626,14 +626,14 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07785439491271973</v>
+        <v>0.07005548477172852</v>
       </c>
       <c r="E8" t="n">
-        <v>1344.112785816193</v>
+        <v>1500.836745738983</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7393292174203238, 'chunk_accuracy': 0.6686968129484399, 'doc_precision': 1.0, 'doc_recall': 0.7393292174203238, 'doc_f1': 0.8501314299967382, 'chunk_precision': 1.0, 'chunk_recall': 0.9044642051096867, 'chunk_f1': 0.9498358674140526}</t>
+          <t>{'doc_accuracy': 0.7393292174203238, 'chunk_accuracy': 0.6087101618554981, 'doc_precision': 1.0, 'doc_recall': 0.7393292174203238, 'doc_f1': 0.8501314299967382, 'chunk_precision': 1.0, 'chunk_recall': 0.6087101618554981, 'chunk_f1': 0.7567679701275801, 'correct_chunk_accuracy': 0.21135991990655767}</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -651,14 +651,14 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09835672378540039</v>
+        <v>0.07069206237792969</v>
       </c>
       <c r="E9" t="n">
-        <v>1380.00067949295</v>
+        <v>1525.028368711472</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7369323327726743, 'chunk_accuracy': 0.6663054728942942, 'doc_precision': 1.0, 'doc_recall': 0.7369323327726743, 'doc_f1': 0.8485446656362315, 'chunk_precision': 1.0, 'chunk_recall': 0.9041609972347803, 'chunk_f1': 0.9496686451910332}</t>
+          <t>{'doc_accuracy': 0.7369323327726743, 'chunk_accuracy': 0.6063041790658559, 'doc_precision': 1.0, 'doc_recall': 0.7369323327726743, 'doc_f1': 0.8485446656362315, 'chunk_precision': 1.0, 'chunk_recall': 0.6063041790658559, 'chunk_f1': 0.7549058104529757, 'correct_chunk_accuracy': 0.21015655324104027}</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -676,14 +676,14 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08312749862670898</v>
+        <v>0.07561731338500977</v>
       </c>
       <c r="E10" t="n">
-        <v>1437.88371515274</v>
+        <v>1575.871683120728</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7357559232794284, 'chunk_accuracy': 0.665083991475492, 'doc_precision': 1.0, 'doc_recall': 0.7357559232794284, 'doc_f1': 0.8477642661755546, 'chunk_precision': 1.0, 'chunk_recall': 0.9039464996911806, 'chunk_f1': 0.9495503154503557}</t>
+          <t>{'doc_accuracy': 0.7357559232794284, 'chunk_accuracy': 0.6046289331829008, 'doc_precision': 1.0, 'doc_recall': 0.7357559232794284, 'doc_f1': 0.8477642661755546, 'chunk_precision': 1.0, 'chunk_recall': 0.6046289331829008, 'chunk_f1': 0.7536059218171698, 'correct_chunk_accuracy': 0.20955246333207975}</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -701,14 +701,14 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07982921600341797</v>
+        <v>0.08264589309692383</v>
       </c>
       <c r="E11" t="n">
-        <v>1483.355649471283</v>
+        <v>1699.388972997665</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7340817133643637, 'chunk_accuracy': 0.663670104347297, 'doc_precision': 1.0, 'doc_recall': 0.7340817133643637, 'doc_f1': 0.8466518131260855, 'chunk_precision': 1.0, 'chunk_recall': 0.9040820555325321, 'chunk_f1': 0.9496250993024344}</t>
+          <t>{'doc_accuracy': 0.7340817133643637, 'chunk_accuracy': 0.6039366006510298, 'doc_precision': 1.0, 'doc_recall': 0.7340817133643637, 'doc_f1': 0.8466518131260855, 'chunk_precision': 1.0, 'chunk_recall': 0.6039366006510298, 'chunk_f1': 0.7530679210211862, 'correct_chunk_accuracy': 0.20868242523805178}</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -726,14 +726,14 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07489824295043945</v>
+        <v>0.07707810401916504</v>
       </c>
       <c r="E12" t="n">
-        <v>1550.997312545776</v>
+        <v>1668.959249973297</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.733522954535354, 'chunk_accuracy': 0.6626372161237278, 'doc_precision': 1.0, 'doc_recall': 0.733522954535354, 'doc_f1': 0.846280059478029, 'chunk_precision': 1.0, 'chunk_recall': 0.9033626173886701, 'chunk_f1': 0.9492280757599872}</t>
+          <t>{'doc_accuracy': 0.733522954535354, 'chunk_accuracy': 0.6031287498333407, 'doc_precision': 1.0, 'doc_recall': 0.733522954535354, 'doc_f1': 0.846280059478029, 'chunk_precision': 1.0, 'chunk_recall': 0.6031287498333407, 'chunk_f1': 0.7524395653138168, 'correct_chunk_accuracy': 0.2083522213827534}</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -751,14 +751,14 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08208441734313965</v>
+        <v>0.1124913692474365</v>
       </c>
       <c r="E13" t="n">
-        <v>1576.632565498352</v>
+        <v>1723.448580265045</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7309534112216933, 'chunk_accuracy': 0.6605509880282706, 'doc_precision': 1.0, 'doc_recall': 0.7309534112216933, 'doc_f1': 0.8445674002349863, 'chunk_precision': 1.0, 'chunk_recall': 0.9036841170550743, 'chunk_f1': 0.949405533154354}</t>
+          <t>{'doc_accuracy': 0.7309534112216933, 'chunk_accuracy': 0.6008365786816674, 'doc_precision': 1.0, 'doc_recall': 0.7309534112216933, 'doc_f1': 0.8445674002349863, 'chunk_precision': 1.0, 'chunk_recall': 0.6008365786816674, 'chunk_f1': 0.7506532355432217, 'correct_chunk_accuracy': 0.20742535698831677}</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -776,14 +776,14 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08061313629150391</v>
+        <v>0.06769466400146484</v>
       </c>
       <c r="E14" t="n">
-        <v>1800.004155874252</v>
+        <v>1795.987806797028</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7297270832459049, 'chunk_accuracy': 0.6592107655937444, 'doc_precision': 1.0, 'doc_recall': 0.7297270832459049, 'doc_f1': 0.8437482309365725, 'chunk_precision': 1.0, 'chunk_recall': 0.9033661772035425, 'chunk_f1': 0.9492300409906235}</t>
+          <t>{'doc_accuracy': 0.7297270832459049, 'chunk_accuracy': 0.5993817057646845, 'doc_precision': 1.0, 'doc_recall': 0.7297270832459049, 'doc_f1': 0.8437482309365725, 'chunk_precision': 1.0, 'chunk_recall': 0.5993817057646845, 'chunk_f1': 0.7495167708925526, 'correct_chunk_accuracy': 0.20671730524431015}</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -801,14 +801,14 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182098388671875</v>
+        <v>0.07314848899841309</v>
       </c>
       <c r="E15" t="n">
-        <v>1712.375753164291</v>
+        <v>1869.095758914948</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7287229691036514, 'chunk_accuracy': 0.6580267786534318, 'doc_precision': 1.0, 'doc_recall': 0.7287229691036514, 'doc_f1': 0.8430766318579045, 'chunk_precision': 1.0, 'chunk_recall': 0.902986191670097, 'chunk_f1': 0.9490202247632906}</t>
+          <t>{'doc_accuracy': 0.7287229691036514, 'chunk_accuracy': 0.5980338687246053, 'doc_precision': 1.0, 'doc_recall': 0.7287229691036514, 'doc_f1': 0.8430766318579045, 'chunk_precision': 1.0, 'chunk_recall': 0.5980338687246053, 'chunk_f1': 0.7484620700835303, 'correct_chunk_accuracy': 0.20629380164162417}</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -826,14 +826,14 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08597898483276367</v>
+        <v>0.0711512565612793</v>
       </c>
       <c r="E16" t="n">
-        <v>1949.602096319199</v>
+        <v>1951.950779914856</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7255875054736535, 'chunk_accuracy': 0.6553256989689628, 'doc_precision': 1.0, 'doc_recall': 0.7255875054736535, 'doc_f1': 0.8409744544070378, 'chunk_precision': 1.0, 'chunk_recall': 0.9031656334009985, 'chunk_f1': 0.9491193173628528}</t>
+          <t>{'doc_accuracy': 0.7255875054736535, 'chunk_accuracy': 0.5957060017781081, 'doc_precision': 1.0, 'doc_recall': 0.7255875054736535, 'doc_f1': 0.8409744544070378, 'chunk_precision': 1.0, 'chunk_recall': 0.5957060017781081, 'chunk_f1': 0.7466362865268515, 'correct_chunk_accuracy': 0.2049335863377609}</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -851,14 +851,14 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08604001998901367</v>
+        <v>0.07375955581665039</v>
       </c>
       <c r="E17" t="n">
-        <v>1884.733119487762</v>
+        <v>1994.360094308853</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7246120478194634, 'chunk_accuracy': 0.6548064757675127, 'doc_precision': 1.0, 'doc_recall': 0.7246120478194634, 'doc_f1': 0.8403188980798743, 'chunk_precision': 1.0, 'chunk_recall': 0.9036649028096995, 'chunk_f1': 0.949394929197825}</t>
+          <t>{'doc_accuracy': 0.7246120478194634, 'chunk_accuracy': 0.5953936326783548, 'doc_precision': 1.0, 'doc_recall': 0.7246120478194634, 'doc_f1': 0.8403188980798743, 'chunk_precision': 1.0, 'chunk_recall': 0.5953936326783548, 'chunk_f1': 0.7463908849614812, 'correct_chunk_accuracy': 0.20472772341139717}</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -876,14 +876,14 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06653761863708496</v>
+        <v>0.07011318206787109</v>
       </c>
       <c r="E18" t="n">
-        <v>1886.285554647446</v>
+        <v>2041.245928049088</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.724722700265052, 'chunk_accuracy': 0.6550805833657845, 'doc_precision': 1.0, 'doc_recall': 0.724722700265052, 'doc_f1': 0.8403932993445011, 'chunk_precision': 1.0, 'chunk_recall': 0.9039051531381623, 'chunk_f1': 0.9495275031408751}</t>
+          <t>{'doc_accuracy': 0.724722700265052, 'chunk_accuracy': 0.5957767533005891, 'doc_precision': 1.0, 'doc_recall': 0.724722700265052, 'doc_f1': 0.8403932993445011, 'chunk_precision': 1.0, 'chunk_recall': 0.5957767533005891, 'chunk_f1': 0.7466918565749596, 'correct_chunk_accuracy': 0.2044820179129976}</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -901,14 +901,14 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06917047500610352</v>
+        <v>0.09707450866699219</v>
       </c>
       <c r="E19" t="n">
-        <v>1986.522681236267</v>
+        <v>2209.426481246948</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.722951522951523, 'chunk_accuracy': 0.6536127964699393, 'doc_precision': 1.0, 'doc_recall': 0.722951522951523, 'doc_f1': 0.839201234998257, 'chunk_precision': 1.0, 'chunk_recall': 0.9040893832016548, 'chunk_f1': 0.9496291415495027}</t>
+          <t>{'doc_accuracy': 0.722951522951523, 'chunk_accuracy': 0.5942146227860513, 'doc_precision': 1.0, 'doc_recall': 0.722951522951523, 'doc_f1': 0.839201234998257, 'chunk_precision': 1.0, 'chunk_recall': 0.5942146227860513, 'chunk_f1': 0.7454637716816337, 'correct_chunk_accuracy': 0.20397376968805542}</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -926,14 +926,14 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08476543426513672</v>
+        <v>0.09890627861022949</v>
       </c>
       <c r="E20" t="n">
-        <v>2013.622542858124</v>
+        <v>2215.200734138489</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7226731569292745, 'chunk_accuracy': 0.6532425336002974, 'doc_precision': 1.0, 'doc_recall': 0.7226731569292745, 'doc_f1': 0.8390136620198632, 'chunk_precision': 1.0, 'chunk_recall': 0.9039252770588626, 'chunk_f1': 0.9495386063209627}</t>
+          <t>{'doc_accuracy': 0.7226731569292745, 'chunk_accuracy': 0.5939069862241778, 'doc_precision': 1.0, 'doc_recall': 0.7226731569292745, 'doc_f1': 0.8390136620198632, 'chunk_precision': 1.0, 'chunk_recall': 0.5939069862241778, 'chunk_f1': 0.7452216363403865, 'correct_chunk_accuracy': 0.20369753138225807}</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -951,14 +951,14 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07437562942504883</v>
+        <v>0.07305431365966797</v>
       </c>
       <c r="E21" t="n">
-        <v>2076.550445556641</v>
+        <v>2237.285643100739</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7206667290944845, 'chunk_accuracy': 0.6512196834909636, 'doc_precision': 1.0, 'doc_recall': 0.7206667290944845, 'doc_f1': 0.8376598639455782, 'chunk_precision': 1.0, 'chunk_recall': 0.9036350051975052, 'chunk_f1': 0.9493784288798068}</t>
+          <t>{'doc_accuracy': 0.7206667290944845, 'chunk_accuracy': 0.591605019196554, 'doc_precision': 1.0, 'doc_recall': 0.7206667290944845, 'doc_f1': 0.8376598639455782, 'chunk_precision': 1.0, 'chunk_recall': 0.591605019196554, 'chunk_f1': 0.7434068277758983, 'correct_chunk_accuracy': 0.20276945406873303}</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -976,14 +976,14 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09621739387512207</v>
+        <v>0.07427453994750977</v>
       </c>
       <c r="E22" t="n">
-        <v>2121.425724029541</v>
+        <v>2327.084751367569</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7193072584880243, 'chunk_accuracy': 0.6501586866680367, 'doc_precision': 1.0, 'doc_recall': 0.7193072584880243, 'doc_f1': 0.8367407918938121, 'chunk_precision': 1.0, 'chunk_recall': 0.9038678242100084, 'chunk_f1': 0.9495069066415466}</t>
+          <t>{'doc_accuracy': 0.7193072584880243, 'chunk_accuracy': 0.5900632463410735, 'doc_precision': 1.0, 'doc_recall': 0.7193072584880243, 'doc_f1': 0.8367407918938121, 'chunk_precision': 1.0, 'chunk_recall': 0.5900632463410735, 'chunk_f1': 0.7421883974727168, 'correct_chunk_accuracy': 0.20215768203301596}</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1001,14 +1001,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02519965171813965</v>
+        <v>0.0165715217590332</v>
       </c>
       <c r="E23" t="n">
-        <v>2088.207420110703</v>
+        <v>2342.608813047409</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{'doc_accuracy': 0.7193232799461181, 'chunk_accuracy': 0.6501786550074773, 'doc_precision': 1.0, 'doc_recall': 0.7193232799461181, 'doc_f1': 0.8367516316869286, 'chunk_precision': 1.0, 'chunk_recall': 0.903875452294801, 'chunk_f1': 0.9495111155567781}</t>
+          <t>{'doc_accuracy': 0.7193232799461181, 'chunk_accuracy': 0.590052397858423, 'doc_precision': 1.0, 'doc_recall': 0.7193232799461181, 'doc_f1': 0.8367516316869286, 'chunk_precision': 1.0, 'chunk_recall': 0.590052397858423, 'chunk_f1': 0.7421798157760595, 'correct_chunk_accuracy': 0.2021712576627587}</t>
         </is>
       </c>
       <c r="G23" t="n">
